--- a/xls/VŠPJ-Vysoká škola polytechnická Jihlava_All.xlsx
+++ b/xls/VŠPJ-Vysoká škola polytechnická Jihlava_All.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="396">
   <si>
     <t>YEAR</t>
   </si>
@@ -73,6 +73,18 @@
     <t>VO</t>
   </si>
   <si>
+    <t>CATEGORY_RIV_SHORT</t>
+  </si>
+  <si>
+    <t>Record_FOS_category</t>
+  </si>
+  <si>
+    <t>IsLocalJournal</t>
+  </si>
+  <si>
+    <t>IsPredatoryJournal</t>
+  </si>
+  <si>
     <t>Jimp</t>
   </si>
   <si>
@@ -1094,6 +1106,102 @@
   </si>
   <si>
     <t>VŠPJ-Vysoká škola polytechnická Jihlava</t>
+  </si>
+  <si>
+    <t>JA</t>
+  </si>
+  <si>
+    <t>AH</t>
+  </si>
+  <si>
+    <t>AO</t>
+  </si>
+  <si>
+    <t>AE</t>
+  </si>
+  <si>
+    <t>BI</t>
+  </si>
+  <si>
+    <t>FJ</t>
+  </si>
+  <si>
+    <t>FE</t>
+  </si>
+  <si>
+    <t>FH</t>
+  </si>
+  <si>
+    <t>FP</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>BO</t>
+  </si>
+  <si>
+    <t>AK</t>
+  </si>
+  <si>
+    <t>FI</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>GG</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>JI</t>
+  </si>
+  <si>
+    <t>GL</t>
+  </si>
+  <si>
+    <t>AI</t>
+  </si>
+  <si>
+    <t>FS</t>
+  </si>
+  <si>
+    <t>CE</t>
+  </si>
+  <si>
+    <t>BB</t>
+  </si>
+  <si>
+    <t>EA</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>ED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Engineering and Technology </t>
+  </si>
+  <si>
+    <t>Social Sciences</t>
+  </si>
+  <si>
+    <t>Natural Sciences</t>
+  </si>
+  <si>
+    <t>Medical and Health Sciences</t>
+  </si>
+  <si>
+    <t>Agricultural and veterinary sciences</t>
+  </si>
+  <si>
+    <t>Humanities and the Arts</t>
   </si>
 </sst>
 </file>
@@ -1464,7 +1572,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S74"/>
+  <dimension ref="A1:W74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1475,7 +1583,7 @@
     <col min="8" max="8" width="40.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1533,13 +1641,25 @@
       <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2">
         <v>2012</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C2">
         <v>0.08333333599999999</v>
@@ -1548,51 +1668,63 @@
         <v>1.625</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="H2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="I2" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="K2" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="L2" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="O2" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="P2">
         <v>71226401</v>
       </c>
       <c r="Q2" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="R2" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="S2" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
+        <v>363</v>
+      </c>
+      <c r="T2" t="s">
+        <v>364</v>
+      </c>
+      <c r="U2" t="s">
+        <v>390</v>
+      </c>
+      <c r="V2" t="b">
+        <v>0</v>
+      </c>
+      <c r="W2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3">
         <v>2013</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C3">
         <v>0.041666668</v>
@@ -1601,48 +1733,60 @@
         <v>0.9131062</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G3" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="H3" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="I3" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="K3" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="L3" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="O3" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="P3">
         <v>71226401</v>
       </c>
       <c r="Q3" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="R3" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="S3" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
+        <v>363</v>
+      </c>
+      <c r="T3" t="s">
+        <v>364</v>
+      </c>
+      <c r="U3" t="s">
+        <v>390</v>
+      </c>
+      <c r="V3" t="b">
+        <v>0</v>
+      </c>
+      <c r="W3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4">
         <v>2011</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C4">
         <v>0.1</v>
@@ -1651,48 +1795,60 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G4" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="H4" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="I4" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="K4" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="L4" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="O4" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="P4">
         <v>71226401</v>
       </c>
       <c r="Q4" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="R4" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="S4" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
+        <v>363</v>
+      </c>
+      <c r="T4" t="s">
+        <v>364</v>
+      </c>
+      <c r="U4" t="s">
+        <v>390</v>
+      </c>
+      <c r="V4" t="b">
+        <v>0</v>
+      </c>
+      <c r="W4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5">
         <v>2012</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C5">
         <v>0.33333334</v>
@@ -1701,48 +1857,60 @@
         <v>4.3906665</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G5" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H5" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="I5" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="K5" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="L5" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="O5" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="P5">
         <v>71226401</v>
       </c>
       <c r="Q5" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="R5" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="S5" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19">
+        <v>363</v>
+      </c>
+      <c r="T5" t="s">
+        <v>365</v>
+      </c>
+      <c r="U5" t="s">
+        <v>391</v>
+      </c>
+      <c r="V5" t="b">
+        <v>1</v>
+      </c>
+      <c r="W5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6">
         <v>2014</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C6">
         <v>0.07692308</v>
@@ -1751,48 +1919,60 @@
         <v>0.74883586</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G6" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="H6" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="I6" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="K6" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="L6" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="O6" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="P6">
         <v>71226401</v>
       </c>
       <c r="Q6" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="R6" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="S6" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
+        <v>363</v>
+      </c>
+      <c r="T6" t="s">
+        <v>364</v>
+      </c>
+      <c r="U6" t="s">
+        <v>390</v>
+      </c>
+      <c r="V6" t="b">
+        <v>0</v>
+      </c>
+      <c r="W6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7">
         <v>2013</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C7">
         <v>0.75</v>
@@ -1801,51 +1981,63 @@
         <v>13.3</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="I7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="K7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="L7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="O7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="P7">
         <v>71226401</v>
       </c>
       <c r="Q7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="R7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="S7" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19">
+        <v>363</v>
+      </c>
+      <c r="T7" t="s">
+        <v>366</v>
+      </c>
+      <c r="U7" t="s">
+        <v>391</v>
+      </c>
+      <c r="V7" t="b">
+        <v>1</v>
+      </c>
+      <c r="W7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8">
         <v>2012</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C8">
         <v>0.08333333599999999</v>
@@ -1854,51 +2046,63 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F8" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G8" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="H8" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="I8" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="K8" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="L8" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="O8" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="P8">
         <v>71226401</v>
       </c>
       <c r="Q8" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="R8" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="S8" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19">
+        <v>363</v>
+      </c>
+      <c r="T8" t="s">
+        <v>364</v>
+      </c>
+      <c r="U8" t="s">
+        <v>390</v>
+      </c>
+      <c r="V8" t="b">
+        <v>0</v>
+      </c>
+      <c r="W8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9">
         <v>2013</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1907,51 +2111,63 @@
         <v>18.157</v>
       </c>
       <c r="E9" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G9" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H9" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="I9" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="K9" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="L9" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="O9" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="P9">
         <v>71226401</v>
       </c>
       <c r="Q9" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="R9" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="S9" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19">
+        <v>363</v>
+      </c>
+      <c r="T9" t="s">
+        <v>367</v>
+      </c>
+      <c r="U9" t="s">
+        <v>391</v>
+      </c>
+      <c r="V9" t="b">
+        <v>1</v>
+      </c>
+      <c r="W9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10">
         <v>2015</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C10">
         <v>0.125</v>
@@ -1960,51 +2176,63 @@
         <v>1.0902945</v>
       </c>
       <c r="E10" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G10" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="H10" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="I10" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="K10" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="L10" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="O10" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="P10">
         <v>71226401</v>
       </c>
       <c r="Q10" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="R10" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="S10" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19">
+        <v>363</v>
+      </c>
+      <c r="T10" t="s">
+        <v>364</v>
+      </c>
+      <c r="U10" t="s">
+        <v>390</v>
+      </c>
+      <c r="V10" t="b">
+        <v>0</v>
+      </c>
+      <c r="W10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11">
         <v>2014</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C11">
         <v>0.08333333599999999</v>
@@ -2013,48 +2241,60 @@
         <v>3.5672388</v>
       </c>
       <c r="E11" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F11" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G11" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="H11" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="I11" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="K11" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="L11" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="O11" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="P11">
         <v>71226401</v>
       </c>
       <c r="Q11" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="R11" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="S11" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19">
+        <v>363</v>
+      </c>
+      <c r="T11" t="s">
+        <v>368</v>
+      </c>
+      <c r="U11" t="s">
+        <v>392</v>
+      </c>
+      <c r="V11" t="b">
+        <v>0</v>
+      </c>
+      <c r="W11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12">
         <v>2013</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -2063,48 +2303,60 @@
         <v>10.999641</v>
       </c>
       <c r="E12" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F12" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G12" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="H12" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="I12" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="K12" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="L12" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="O12" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="P12">
         <v>71226401</v>
       </c>
       <c r="Q12" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="R12" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="S12" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19">
+        <v>363</v>
+      </c>
+      <c r="T12" t="s">
+        <v>367</v>
+      </c>
+      <c r="U12" t="s">
+        <v>391</v>
+      </c>
+      <c r="V12" t="b">
+        <v>1</v>
+      </c>
+      <c r="W12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13">
         <v>2014</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C13">
         <v>0.125</v>
@@ -2113,48 +2365,60 @@
         <v>2.3416691</v>
       </c>
       <c r="E13" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F13" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G13" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="H13" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="I13" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="K13" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="L13" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="O13" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="P13">
         <v>71226401</v>
       </c>
       <c r="Q13" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="R13" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="S13" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19">
+        <v>363</v>
+      </c>
+      <c r="T13" t="s">
+        <v>369</v>
+      </c>
+      <c r="U13" t="s">
+        <v>393</v>
+      </c>
+      <c r="V13" t="b">
+        <v>0</v>
+      </c>
+      <c r="W13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14">
         <v>2012</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C14">
         <v>0.22222222</v>
@@ -2163,48 +2427,60 @@
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F14" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G14" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="H14" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="I14" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="K14" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="L14" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="O14" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="P14">
         <v>71226401</v>
       </c>
       <c r="Q14" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="R14" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="S14" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19">
+        <v>363</v>
+      </c>
+      <c r="T14" t="s">
+        <v>370</v>
+      </c>
+      <c r="U14" t="s">
+        <v>393</v>
+      </c>
+      <c r="V14" t="b">
+        <v>1</v>
+      </c>
+      <c r="W14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15">
         <v>2015</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C15">
         <v>0.08333333599999999</v>
@@ -2213,48 +2489,60 @@
         <v>2.1859696</v>
       </c>
       <c r="E15" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F15" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G15" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="H15" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="I15" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="K15" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="L15" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="O15" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="P15">
         <v>71226401</v>
       </c>
       <c r="Q15" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="R15" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="S15" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19">
+        <v>363</v>
+      </c>
+      <c r="T15" t="s">
+        <v>371</v>
+      </c>
+      <c r="U15" t="s">
+        <v>393</v>
+      </c>
+      <c r="V15" t="b">
+        <v>0</v>
+      </c>
+      <c r="W15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16">
         <v>2013</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C16">
         <v>0.5</v>
@@ -2263,48 +2551,60 @@
         <v>9.625401500000001</v>
       </c>
       <c r="E16" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F16" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G16" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="H16" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="I16" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="K16" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="L16" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="O16" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="P16">
         <v>71226401</v>
       </c>
       <c r="Q16" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="R16" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="S16" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19">
+        <v>363</v>
+      </c>
+      <c r="T16" t="s">
+        <v>364</v>
+      </c>
+      <c r="U16" t="s">
+        <v>390</v>
+      </c>
+      <c r="V16" t="b">
+        <v>0</v>
+      </c>
+      <c r="W16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
       <c r="A17">
         <v>2014</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C17">
         <v>0.75</v>
@@ -2313,51 +2613,63 @@
         <v>10.442553</v>
       </c>
       <c r="E17" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F17" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G17" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H17" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="I17" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="K17" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="L17" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="O17" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="P17">
         <v>71226401</v>
       </c>
       <c r="Q17" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="R17" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="S17" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19">
+        <v>363</v>
+      </c>
+      <c r="T17" t="s">
+        <v>365</v>
+      </c>
+      <c r="U17" t="s">
+        <v>391</v>
+      </c>
+      <c r="V17" t="b">
+        <v>1</v>
+      </c>
+      <c r="W17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
       <c r="A18">
         <v>2011</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -2366,48 +2678,60 @@
         <v>18.351999</v>
       </c>
       <c r="E18" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F18" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G18" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="H18" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="I18" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="K18" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="L18" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="O18" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="P18">
         <v>71226401</v>
       </c>
       <c r="Q18" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="R18" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="S18" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19">
+        <v>363</v>
+      </c>
+      <c r="T18" t="s">
+        <v>364</v>
+      </c>
+      <c r="U18" t="s">
+        <v>390</v>
+      </c>
+      <c r="V18" t="b">
+        <v>0</v>
+      </c>
+      <c r="W18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
       <c r="A19">
         <v>2013</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -2416,51 +2740,63 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F19" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G19" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="H19" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="I19" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="K19" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="L19" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="O19" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="P19">
         <v>71226401</v>
       </c>
       <c r="Q19" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="R19" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="S19" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19">
+        <v>363</v>
+      </c>
+      <c r="T19" t="s">
+        <v>364</v>
+      </c>
+      <c r="U19" t="s">
+        <v>390</v>
+      </c>
+      <c r="V19" t="b">
+        <v>0</v>
+      </c>
+      <c r="W19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
       <c r="A20">
         <v>2015</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -2469,48 +2805,60 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F20" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G20" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="H20" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="I20" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="K20" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="L20" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="O20" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="P20">
         <v>71226401</v>
       </c>
       <c r="Q20" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="R20" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="S20" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19">
+        <v>363</v>
+      </c>
+      <c r="T20" t="s">
+        <v>372</v>
+      </c>
+      <c r="U20" t="s">
+        <v>393</v>
+      </c>
+      <c r="V20" t="b">
+        <v>1</v>
+      </c>
+      <c r="W20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
       <c r="A21">
         <v>2013</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C21">
         <v>0.25</v>
@@ -2519,48 +2867,60 @@
         <v>2.4033821</v>
       </c>
       <c r="E21" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F21" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G21" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="H21" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="I21" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="K21" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="L21" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="O21" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="P21">
         <v>71226401</v>
       </c>
       <c r="Q21" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="R21" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="S21" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19">
+        <v>363</v>
+      </c>
+      <c r="T21" t="s">
+        <v>373</v>
+      </c>
+      <c r="U21" t="s">
+        <v>391</v>
+      </c>
+      <c r="V21" t="b">
+        <v>1</v>
+      </c>
+      <c r="W21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
       <c r="A22">
         <v>2015</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C22">
         <v>0.5</v>
@@ -2569,51 +2929,63 @@
         <v>4.0000296</v>
       </c>
       <c r="E22" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F22" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G22" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="H22" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="I22" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="K22" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="L22" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="O22" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="P22">
         <v>71226401</v>
       </c>
       <c r="Q22" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="R22" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="S22" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19">
+        <v>363</v>
+      </c>
+      <c r="T22" t="s">
+        <v>367</v>
+      </c>
+      <c r="U22" t="s">
+        <v>391</v>
+      </c>
+      <c r="V22" t="b">
+        <v>0</v>
+      </c>
+      <c r="W22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
       <c r="A23">
         <v>2011</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -2622,48 +2994,60 @@
         <v>15.306</v>
       </c>
       <c r="E23" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F23" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G23" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="H23" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="I23" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="K23" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="L23" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="O23" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="P23">
         <v>71226401</v>
       </c>
       <c r="Q23" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="R23" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="S23" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19">
+        <v>363</v>
+      </c>
+      <c r="T23" t="s">
+        <v>364</v>
+      </c>
+      <c r="U23" t="s">
+        <v>390</v>
+      </c>
+      <c r="V23" t="b">
+        <v>0</v>
+      </c>
+      <c r="W23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
       <c r="A24">
         <v>2013</v>
       </c>
       <c r="B24" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -2672,48 +3056,60 @@
         <v>22.850725</v>
       </c>
       <c r="E24" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F24" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G24" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="H24" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="I24" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="K24" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="L24" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="O24" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="P24">
         <v>71226401</v>
       </c>
       <c r="Q24" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="R24" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="S24" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19">
+        <v>363</v>
+      </c>
+      <c r="T24" t="s">
+        <v>374</v>
+      </c>
+      <c r="U24" t="s">
+        <v>392</v>
+      </c>
+      <c r="V24" t="b">
+        <v>0</v>
+      </c>
+      <c r="W24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
       <c r="A25">
         <v>2013</v>
       </c>
       <c r="B25" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -2722,48 +3118,60 @@
         <v>11.388744</v>
       </c>
       <c r="E25" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F25" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G25" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H25" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="I25" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="K25" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="L25" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="O25" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="P25">
         <v>71226401</v>
       </c>
       <c r="Q25" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="R25" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="S25" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19">
+        <v>363</v>
+      </c>
+      <c r="T25" t="s">
+        <v>364</v>
+      </c>
+      <c r="U25" t="s">
+        <v>390</v>
+      </c>
+      <c r="V25" t="b">
+        <v>0</v>
+      </c>
+      <c r="W25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
       <c r="A26">
         <v>2013</v>
       </c>
       <c r="B26" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C26">
         <v>0.66666669</v>
@@ -2772,48 +3180,60 @@
         <v>24.608</v>
       </c>
       <c r="E26" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F26" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G26" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="H26" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="I26" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="K26" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="L26" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="O26" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="P26">
         <v>71226401</v>
       </c>
       <c r="Q26" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="R26" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="S26" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19">
+        <v>363</v>
+      </c>
+      <c r="T26" t="s">
+        <v>375</v>
+      </c>
+      <c r="U26" t="s">
+        <v>392</v>
+      </c>
+      <c r="V26" t="b">
+        <v>0</v>
+      </c>
+      <c r="W26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
       <c r="A27">
         <v>2012</v>
       </c>
       <c r="B27" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C27">
         <v>0.5</v>
@@ -2822,48 +3242,60 @@
         <v>6.0384998</v>
       </c>
       <c r="E27" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F27" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G27" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="H27" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="I27" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="K27" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="L27" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="O27" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="P27">
         <v>71226401</v>
       </c>
       <c r="Q27" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="R27" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="S27" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19">
+        <v>363</v>
+      </c>
+      <c r="T27" t="s">
+        <v>376</v>
+      </c>
+      <c r="U27" t="s">
+        <v>393</v>
+      </c>
+      <c r="V27" t="b">
+        <v>0</v>
+      </c>
+      <c r="W27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
       <c r="A28">
         <v>2011</v>
       </c>
       <c r="B28" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -2872,48 +3304,60 @@
         <v>12.959</v>
       </c>
       <c r="E28" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F28" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G28" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="H28" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="I28" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="K28" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="L28" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="O28" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="P28">
         <v>71226401</v>
       </c>
       <c r="Q28" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="R28" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="S28" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19">
+        <v>363</v>
+      </c>
+      <c r="T28" t="s">
+        <v>374</v>
+      </c>
+      <c r="U28" t="s">
+        <v>392</v>
+      </c>
+      <c r="V28" t="b">
+        <v>1</v>
+      </c>
+      <c r="W28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
       <c r="A29">
         <v>2015</v>
       </c>
       <c r="B29" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C29">
         <v>0.2</v>
@@ -2922,51 +3366,63 @@
         <v>2.0202184</v>
       </c>
       <c r="E29" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F29" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G29" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H29" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="I29" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="K29" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="L29" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="O29" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="P29">
         <v>71226401</v>
       </c>
       <c r="Q29" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="R29" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="S29" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19">
+        <v>363</v>
+      </c>
+      <c r="T29" t="s">
+        <v>377</v>
+      </c>
+      <c r="U29" t="s">
+        <v>393</v>
+      </c>
+      <c r="V29" t="b">
+        <v>1</v>
+      </c>
+      <c r="W29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
       <c r="A30">
         <v>2013</v>
       </c>
       <c r="B30" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C30">
         <v>0.07142857499999999</v>
@@ -2975,48 +3431,60 @@
         <v>0.81300002</v>
       </c>
       <c r="E30" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F30" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G30" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H30" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="I30" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="K30" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="L30" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="O30" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="P30">
         <v>71226401</v>
       </c>
       <c r="Q30" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="R30" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="S30" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19">
+        <v>363</v>
+      </c>
+      <c r="T30" t="s">
+        <v>364</v>
+      </c>
+      <c r="U30" t="s">
+        <v>390</v>
+      </c>
+      <c r="V30" t="b">
+        <v>0</v>
+      </c>
+      <c r="W30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
       <c r="A31">
         <v>2015</v>
       </c>
       <c r="B31" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C31">
         <v>0.5</v>
@@ -3025,51 +3493,63 @@
         <v>5.120483900000001</v>
       </c>
       <c r="E31" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F31" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G31" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="H31" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="I31" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="K31" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="L31" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="O31" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="P31">
         <v>71226401</v>
       </c>
       <c r="Q31" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="R31" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="S31" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19">
+        <v>363</v>
+      </c>
+      <c r="T31" t="s">
+        <v>374</v>
+      </c>
+      <c r="U31" t="s">
+        <v>392</v>
+      </c>
+      <c r="V31" t="b">
+        <v>0</v>
+      </c>
+      <c r="W31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
       <c r="A32">
         <v>2013</v>
       </c>
       <c r="B32" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C32">
         <v>0.5</v>
@@ -3078,51 +3558,63 @@
         <v>5.1240001</v>
       </c>
       <c r="E32" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F32" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G32" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="H32" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="I32" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="K32" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="L32" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="O32" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="P32">
         <v>71226401</v>
       </c>
       <c r="Q32" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="R32" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="S32" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19">
+        <v>363</v>
+      </c>
+      <c r="T32" t="s">
+        <v>364</v>
+      </c>
+      <c r="U32" t="s">
+        <v>390</v>
+      </c>
+      <c r="V32" t="b">
+        <v>0</v>
+      </c>
+      <c r="W32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
       <c r="A33">
         <v>2015</v>
       </c>
       <c r="B33" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -3131,51 +3623,63 @@
         <v>27.477283</v>
       </c>
       <c r="E33" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F33" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G33" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="H33" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="I33" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K33" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="L33" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="O33" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="P33">
         <v>71226401</v>
       </c>
       <c r="Q33" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="R33" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="S33" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19">
+        <v>363</v>
+      </c>
+      <c r="T33" t="s">
+        <v>378</v>
+      </c>
+      <c r="U33" t="s">
+        <v>391</v>
+      </c>
+      <c r="V33" t="b">
+        <v>0</v>
+      </c>
+      <c r="W33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
       <c r="A34">
         <v>2013</v>
       </c>
       <c r="B34" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C34">
         <v>0.09090909400000001</v>
@@ -3184,51 +3688,63 @@
         <v>0.93199998</v>
       </c>
       <c r="E34" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F34" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G34" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="H34" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="I34" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="K34" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="L34" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="O34" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="P34">
         <v>71226401</v>
       </c>
       <c r="Q34" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="R34" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="S34" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19">
+        <v>363</v>
+      </c>
+      <c r="T34" t="s">
+        <v>364</v>
+      </c>
+      <c r="U34" t="s">
+        <v>390</v>
+      </c>
+      <c r="V34" t="b">
+        <v>0</v>
+      </c>
+      <c r="W34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
       <c r="A35">
         <v>2012</v>
       </c>
       <c r="B35" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -3237,48 +3753,60 @@
         <v>13.959</v>
       </c>
       <c r="E35" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F35" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G35" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="H35" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="I35" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="K35" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="L35" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="O35" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="P35">
         <v>71226401</v>
       </c>
       <c r="Q35" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="R35" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="S35" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19">
+        <v>363</v>
+      </c>
+      <c r="T35" t="s">
+        <v>364</v>
+      </c>
+      <c r="U35" t="s">
+        <v>390</v>
+      </c>
+      <c r="V35" t="b">
+        <v>0</v>
+      </c>
+      <c r="W35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
       <c r="A36">
         <v>2012</v>
       </c>
       <c r="B36" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C36">
         <v>0.66666669</v>
@@ -3287,48 +3815,60 @@
         <v>9.012000099999998</v>
       </c>
       <c r="E36" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F36" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G36" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="H36" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="I36" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="K36" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="L36" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="O36" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="P36">
         <v>71226401</v>
       </c>
       <c r="Q36" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="R36" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="S36" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19">
+        <v>363</v>
+      </c>
+      <c r="T36" t="s">
+        <v>379</v>
+      </c>
+      <c r="U36" t="s">
+        <v>394</v>
+      </c>
+      <c r="V36" t="b">
+        <v>0</v>
+      </c>
+      <c r="W36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
       <c r="A37">
         <v>2015</v>
       </c>
       <c r="B37" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C37">
         <v>0.08333333599999999</v>
@@ -3337,51 +3877,63 @@
         <v>1.0099822</v>
       </c>
       <c r="E37" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F37" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G37" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="H37" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="I37" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="K37" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="L37" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="O37" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="P37">
         <v>71226401</v>
       </c>
       <c r="Q37" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="R37" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="S37" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19">
+        <v>363</v>
+      </c>
+      <c r="T37" t="s">
+        <v>364</v>
+      </c>
+      <c r="U37" t="s">
+        <v>390</v>
+      </c>
+      <c r="V37" t="b">
+        <v>0</v>
+      </c>
+      <c r="W37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
       <c r="A38">
         <v>2014</v>
       </c>
       <c r="B38" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C38">
         <v>0.33333334</v>
@@ -3390,48 +3942,60 @@
         <v>3.0885389</v>
       </c>
       <c r="E38" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F38" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G38" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="H38" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="I38" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="K38" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="L38" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="O38" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="P38">
         <v>71226401</v>
       </c>
       <c r="Q38" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="R38" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="S38" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19">
+        <v>363</v>
+      </c>
+      <c r="T38" t="s">
+        <v>380</v>
+      </c>
+      <c r="U38" t="s">
+        <v>393</v>
+      </c>
+      <c r="V38" t="b">
+        <v>0</v>
+      </c>
+      <c r="W38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
       <c r="A39">
         <v>2015</v>
       </c>
       <c r="B39" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C39">
         <v>0.2</v>
@@ -3440,51 +4004,63 @@
         <v>6.5368075</v>
       </c>
       <c r="E39" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G39" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="H39" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="I39" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="K39" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="L39" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="O39" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="P39">
         <v>71226401</v>
       </c>
       <c r="Q39" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="R39" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="S39" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19">
+        <v>363</v>
+      </c>
+      <c r="T39" t="s">
+        <v>381</v>
+      </c>
+      <c r="U39" t="s">
+        <v>390</v>
+      </c>
+      <c r="V39" t="b">
+        <v>0</v>
+      </c>
+      <c r="W39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
       <c r="A40">
         <v>2014</v>
       </c>
       <c r="B40" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C40">
         <v>0.5</v>
@@ -3493,51 +4069,63 @@
         <v>6.694057000000001</v>
       </c>
       <c r="E40" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G40" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="H40" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="I40" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="K40" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="L40" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="O40" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="P40">
         <v>71226401</v>
       </c>
       <c r="Q40" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="R40" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="S40" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19">
+        <v>363</v>
+      </c>
+      <c r="T40" t="s">
+        <v>374</v>
+      </c>
+      <c r="U40" t="s">
+        <v>392</v>
+      </c>
+      <c r="V40" t="b">
+        <v>0</v>
+      </c>
+      <c r="W40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
       <c r="A41">
         <v>2012</v>
       </c>
       <c r="B41" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -3546,48 +4134,60 @@
         <v>0</v>
       </c>
       <c r="E41" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F41" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G41" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="H41" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="I41" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="K41" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="L41" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="O41" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="P41">
         <v>71226401</v>
       </c>
       <c r="Q41" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="R41" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="S41" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19">
+        <v>363</v>
+      </c>
+      <c r="T41" t="s">
+        <v>382</v>
+      </c>
+      <c r="U41" t="s">
+        <v>394</v>
+      </c>
+      <c r="V41" t="b">
+        <v>0</v>
+      </c>
+      <c r="W41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
       <c r="A42">
         <v>2012</v>
       </c>
       <c r="B42" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C42">
         <v>0.25</v>
@@ -3596,48 +4196,60 @@
         <v>5.348249900000001</v>
       </c>
       <c r="E42" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F42" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G42" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="H42" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="I42" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="K42" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="L42" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="O42" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="P42">
         <v>71226401</v>
       </c>
       <c r="Q42" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="R42" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="S42" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19">
+        <v>363</v>
+      </c>
+      <c r="T42" t="s">
+        <v>383</v>
+      </c>
+      <c r="U42" t="s">
+        <v>395</v>
+      </c>
+      <c r="V42" t="b">
+        <v>0</v>
+      </c>
+      <c r="W42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23">
       <c r="A43">
         <v>2014</v>
       </c>
       <c r="B43" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -3646,48 +4258,60 @@
         <v>13.923404</v>
       </c>
       <c r="E43" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F43" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="G43" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H43" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="I43" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="K43" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="L43" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="O43" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="P43">
         <v>71226401</v>
       </c>
       <c r="Q43" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="R43" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="S43" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19">
+        <v>363</v>
+      </c>
+      <c r="T43" t="s">
+        <v>365</v>
+      </c>
+      <c r="U43" t="s">
+        <v>391</v>
+      </c>
+      <c r="V43" t="b">
+        <v>1</v>
+      </c>
+      <c r="W43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23">
       <c r="A44">
         <v>2015</v>
       </c>
       <c r="B44" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C44">
         <v>0.09090909400000001</v>
@@ -3696,48 +4320,60 @@
         <v>1.0911549</v>
       </c>
       <c r="E44" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F44" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="G44" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="H44" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="I44" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="K44" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="L44" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="O44" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="P44">
         <v>71226401</v>
       </c>
       <c r="Q44" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="R44" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="S44" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19">
+        <v>363</v>
+      </c>
+      <c r="T44" t="s">
+        <v>364</v>
+      </c>
+      <c r="U44" t="s">
+        <v>390</v>
+      </c>
+      <c r="V44" t="b">
+        <v>0</v>
+      </c>
+      <c r="W44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23">
       <c r="A45">
         <v>2012</v>
       </c>
       <c r="B45" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C45">
         <v>0.16666667</v>
@@ -3746,48 +4382,60 @@
         <v>2.1138592</v>
       </c>
       <c r="E45" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F45" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="G45" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="H45" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="I45" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="K45" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="L45" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="O45" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="P45">
         <v>71226401</v>
       </c>
       <c r="Q45" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="R45" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="S45" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19">
+        <v>363</v>
+      </c>
+      <c r="T45" t="s">
+        <v>384</v>
+      </c>
+      <c r="U45" t="s">
+        <v>390</v>
+      </c>
+      <c r="V45" t="b">
+        <v>0</v>
+      </c>
+      <c r="W45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23">
       <c r="A46">
         <v>2013</v>
       </c>
       <c r="B46" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C46">
         <v>0.2</v>
@@ -3796,51 +4444,63 @@
         <v>1.386</v>
       </c>
       <c r="E46" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F46" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="G46" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="H46" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="I46" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="K46" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="L46" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="O46" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="P46">
         <v>71226401</v>
       </c>
       <c r="Q46" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="R46" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="S46" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19">
+        <v>363</v>
+      </c>
+      <c r="T46" t="s">
+        <v>376</v>
+      </c>
+      <c r="U46" t="s">
+        <v>393</v>
+      </c>
+      <c r="V46" t="b">
+        <v>0</v>
+      </c>
+      <c r="W46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23">
       <c r="A47">
         <v>2012</v>
       </c>
       <c r="B47" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -3849,51 +4509,63 @@
         <v>0</v>
       </c>
       <c r="E47" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F47" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G47" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="H47" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="I47" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="K47" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="L47" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="O47" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="P47">
         <v>71226401</v>
       </c>
       <c r="Q47" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="R47" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="S47" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19">
+        <v>363</v>
+      </c>
+      <c r="T47" t="s">
+        <v>364</v>
+      </c>
+      <c r="U47" t="s">
+        <v>390</v>
+      </c>
+      <c r="V47" t="b">
+        <v>0</v>
+      </c>
+      <c r="W47" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23">
       <c r="A48">
         <v>2011</v>
       </c>
       <c r="B48" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C48">
         <v>0.33333334</v>
@@ -3902,48 +4574,60 @@
         <v>4.506</v>
       </c>
       <c r="E48" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F48" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G48" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H48" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="I48" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="K48" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="L48" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="O48" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="P48">
         <v>71226401</v>
       </c>
       <c r="Q48" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="R48" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="S48" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19">
+        <v>363</v>
+      </c>
+      <c r="T48" t="s">
+        <v>385</v>
+      </c>
+      <c r="U48" t="s">
+        <v>392</v>
+      </c>
+      <c r="V48" t="b">
+        <v>1</v>
+      </c>
+      <c r="W48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23">
       <c r="A49">
         <v>2011</v>
       </c>
       <c r="B49" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -3952,48 +4636,60 @@
         <v>38.903999</v>
       </c>
       <c r="E49" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F49" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G49" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="H49" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="I49" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="K49" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="L49" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="O49" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="P49">
         <v>71226401</v>
       </c>
       <c r="Q49" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="R49" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="S49" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19">
+        <v>363</v>
+      </c>
+      <c r="T49" t="s">
+        <v>368</v>
+      </c>
+      <c r="U49" t="s">
+        <v>392</v>
+      </c>
+      <c r="V49" t="b">
+        <v>0</v>
+      </c>
+      <c r="W49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23">
       <c r="A50">
         <v>2011</v>
       </c>
       <c r="B50" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -4002,48 +4698,60 @@
         <v>21.795</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F50" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G50" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H50" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="I50" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="K50" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="L50" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="O50" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="P50">
         <v>71226401</v>
       </c>
       <c r="Q50" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="R50" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="S50" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19">
+        <v>363</v>
+      </c>
+      <c r="T50" t="s">
+        <v>367</v>
+      </c>
+      <c r="U50" t="s">
+        <v>391</v>
+      </c>
+      <c r="V50" t="b">
+        <v>1</v>
+      </c>
+      <c r="W50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23">
       <c r="A51">
         <v>2015</v>
       </c>
       <c r="B51" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -4052,51 +4760,63 @@
         <v>11.859626</v>
       </c>
       <c r="E51" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F51" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="G51" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H51" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="I51" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="K51" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="L51" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="O51" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="P51">
         <v>71226401</v>
       </c>
       <c r="Q51" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="R51" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="S51" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19">
+        <v>363</v>
+      </c>
+      <c r="T51" t="s">
+        <v>386</v>
+      </c>
+      <c r="U51" t="s">
+        <v>392</v>
+      </c>
+      <c r="V51" t="b">
+        <v>1</v>
+      </c>
+      <c r="W51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23">
       <c r="A52">
         <v>2011</v>
       </c>
       <c r="B52" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C52">
         <v>0.08333333599999999</v>
@@ -4105,48 +4825,60 @@
         <v>2.7420833</v>
       </c>
       <c r="E52" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F52" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G52" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="H52" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="I52" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="K52" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="L52" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="O52" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="P52">
         <v>71226401</v>
       </c>
       <c r="Q52" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="R52" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="S52" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19">
+        <v>363</v>
+      </c>
+      <c r="T52" t="s">
+        <v>368</v>
+      </c>
+      <c r="U52" t="s">
+        <v>392</v>
+      </c>
+      <c r="V52" t="b">
+        <v>0</v>
+      </c>
+      <c r="W52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23">
       <c r="A53">
         <v>2014</v>
       </c>
       <c r="B53" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C53">
         <v>0.08333333599999999</v>
@@ -4155,48 +4887,60 @@
         <v>1.5732955</v>
       </c>
       <c r="E53" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F53" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="G53" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="H53" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="I53" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="K53" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="L53" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="O53" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="P53">
         <v>71226401</v>
       </c>
       <c r="Q53" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="R53" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="S53" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19">
+        <v>363</v>
+      </c>
+      <c r="T53" t="s">
+        <v>364</v>
+      </c>
+      <c r="U53" t="s">
+        <v>390</v>
+      </c>
+      <c r="V53" t="b">
+        <v>0</v>
+      </c>
+      <c r="W53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23">
       <c r="A54">
         <v>2015</v>
       </c>
       <c r="B54" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -4205,51 +4949,63 @@
         <v>13.980483</v>
       </c>
       <c r="E54" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F54" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G54" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="H54" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="I54" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="K54" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="L54" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="O54" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="P54">
         <v>71226401</v>
       </c>
       <c r="Q54" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="R54" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="S54" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19">
+        <v>363</v>
+      </c>
+      <c r="T54" t="s">
+        <v>365</v>
+      </c>
+      <c r="U54" t="s">
+        <v>391</v>
+      </c>
+      <c r="V54" t="b">
+        <v>1</v>
+      </c>
+      <c r="W54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23">
       <c r="A55">
         <v>2015</v>
       </c>
       <c r="B55" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C55">
         <v>0.1</v>
@@ -4258,51 +5014,63 @@
         <v>1.2119787</v>
       </c>
       <c r="E55" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F55" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G55" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="H55" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="I55" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="K55" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="L55" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="O55" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="P55">
         <v>71226401</v>
       </c>
       <c r="Q55" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="R55" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="S55" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19">
+        <v>363</v>
+      </c>
+      <c r="T55" t="s">
+        <v>364</v>
+      </c>
+      <c r="U55" t="s">
+        <v>390</v>
+      </c>
+      <c r="V55" t="b">
+        <v>0</v>
+      </c>
+      <c r="W55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23">
       <c r="A56">
         <v>2015</v>
       </c>
       <c r="B56" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -4311,48 +5079,60 @@
         <v>8.594041800000001</v>
       </c>
       <c r="E56" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F56" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="G56" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H56" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="I56" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="K56" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="L56" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="O56" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="P56">
         <v>71226401</v>
       </c>
       <c r="Q56" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="R56" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="S56" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19">
+        <v>363</v>
+      </c>
+      <c r="T56" t="s">
+        <v>365</v>
+      </c>
+      <c r="U56" t="s">
+        <v>391</v>
+      </c>
+      <c r="V56" t="b">
+        <v>1</v>
+      </c>
+      <c r="W56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23">
       <c r="A57">
         <v>2015</v>
       </c>
       <c r="B57" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C57">
         <v>0.25</v>
@@ -4361,48 +5141,60 @@
         <v>19.47957</v>
       </c>
       <c r="E57" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F57" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G57" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="H57" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="I57" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="K57" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="L57" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="O57" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="P57">
         <v>71226401</v>
       </c>
       <c r="Q57" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="R57" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="S57" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19">
+        <v>363</v>
+      </c>
+      <c r="T57" t="s">
+        <v>371</v>
+      </c>
+      <c r="U57" t="s">
+        <v>393</v>
+      </c>
+      <c r="V57" t="b">
+        <v>0</v>
+      </c>
+      <c r="W57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23">
       <c r="A58">
         <v>2015</v>
       </c>
       <c r="B58" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C58">
         <v>0.08333333599999999</v>
@@ -4411,48 +5203,60 @@
         <v>0.91931009</v>
       </c>
       <c r="E58" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F58" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G58" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="H58" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="I58" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="K58" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="L58" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="O58" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="P58">
         <v>71226401</v>
       </c>
       <c r="Q58" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="R58" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="S58" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19">
+        <v>363</v>
+      </c>
+      <c r="T58" t="s">
+        <v>364</v>
+      </c>
+      <c r="U58" t="s">
+        <v>390</v>
+      </c>
+      <c r="V58" t="b">
+        <v>0</v>
+      </c>
+      <c r="W58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23">
       <c r="A59">
         <v>2011</v>
       </c>
       <c r="B59" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -4461,48 +5265,60 @@
         <v>0</v>
       </c>
       <c r="E59" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F59" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G59" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="H59" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="I59" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="K59" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="L59" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="O59" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="P59">
         <v>71226401</v>
       </c>
       <c r="Q59" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="R59" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="S59" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19">
+        <v>363</v>
+      </c>
+      <c r="T59" t="s">
+        <v>364</v>
+      </c>
+      <c r="U59" t="s">
+        <v>390</v>
+      </c>
+      <c r="V59" t="b">
+        <v>0</v>
+      </c>
+      <c r="W59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23">
       <c r="A60">
         <v>2012</v>
       </c>
       <c r="B60" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -4511,51 +5327,63 @@
         <v>13.169</v>
       </c>
       <c r="E60" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F60" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G60" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H60" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="I60" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="K60" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="L60" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="O60" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="P60">
         <v>71226401</v>
       </c>
       <c r="Q60" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="R60" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="S60" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19">
+        <v>363</v>
+      </c>
+      <c r="T60" t="s">
+        <v>364</v>
+      </c>
+      <c r="U60" t="s">
+        <v>390</v>
+      </c>
+      <c r="V60" t="b">
+        <v>0</v>
+      </c>
+      <c r="W60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23">
       <c r="A61">
         <v>2012</v>
       </c>
       <c r="B61" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C61">
         <v>0.25</v>
@@ -4564,48 +5392,60 @@
         <v>4.818162</v>
       </c>
       <c r="E61" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F61" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="G61" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H61" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="I61" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="K61" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="L61" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="O61" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="P61">
         <v>71226401</v>
       </c>
       <c r="Q61" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="R61" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="S61" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19">
+        <v>363</v>
+      </c>
+      <c r="T61" t="s">
+        <v>386</v>
+      </c>
+      <c r="U61" t="s">
+        <v>392</v>
+      </c>
+      <c r="V61" t="b">
+        <v>1</v>
+      </c>
+      <c r="W61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23">
       <c r="A62">
         <v>2015</v>
       </c>
       <c r="B62" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C62">
         <v>0.16666667</v>
@@ -4614,51 +5454,63 @@
         <v>1.4902756</v>
       </c>
       <c r="E62" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F62" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G62" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="H62" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="I62" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="K62" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="L62" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="O62" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="P62">
         <v>71226401</v>
       </c>
       <c r="Q62" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="R62" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="S62" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19">
+        <v>363</v>
+      </c>
+      <c r="T62" t="s">
+        <v>377</v>
+      </c>
+      <c r="U62" t="s">
+        <v>393</v>
+      </c>
+      <c r="V62" t="b">
+        <v>1</v>
+      </c>
+      <c r="W62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23">
       <c r="A63">
         <v>2011</v>
       </c>
       <c r="B63" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C63">
         <v>0.40000001</v>
@@ -4667,48 +5519,60 @@
         <v>4.7790265</v>
       </c>
       <c r="E63" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F63" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G63" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H63" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="I63" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="K63" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="L63" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="O63" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="P63">
         <v>71226401</v>
       </c>
       <c r="Q63" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="R63" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="S63" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19">
+        <v>363</v>
+      </c>
+      <c r="T63" t="s">
+        <v>382</v>
+      </c>
+      <c r="U63" t="s">
+        <v>394</v>
+      </c>
+      <c r="V63" t="b">
+        <v>1</v>
+      </c>
+      <c r="W63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23">
       <c r="A64">
         <v>2012</v>
       </c>
       <c r="B64" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -4717,51 +5581,63 @@
         <v>9.298000300000002</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F64" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G64" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="H64" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="I64" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="K64" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="L64" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="O64" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="P64">
         <v>71226401</v>
       </c>
       <c r="Q64" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="R64" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="S64" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="65" spans="1:19">
+        <v>363</v>
+      </c>
+      <c r="T64" t="s">
+        <v>365</v>
+      </c>
+      <c r="U64" t="s">
+        <v>391</v>
+      </c>
+      <c r="V64" t="b">
+        <v>0</v>
+      </c>
+      <c r="W64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23">
       <c r="A65">
         <v>2015</v>
       </c>
       <c r="B65" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C65">
         <v>0.66666669</v>
@@ -4770,48 +5646,60 @@
         <v>9.484321599999999</v>
       </c>
       <c r="E65" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F65" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G65" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="H65" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="I65" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="K65" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="L65" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="O65" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="P65">
         <v>71226401</v>
       </c>
       <c r="Q65" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="R65" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="S65" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="66" spans="1:19">
+        <v>363</v>
+      </c>
+      <c r="T65" t="s">
+        <v>371</v>
+      </c>
+      <c r="U65" t="s">
+        <v>393</v>
+      </c>
+      <c r="V65" t="b">
+        <v>0</v>
+      </c>
+      <c r="W65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23">
       <c r="A66">
         <v>2011</v>
       </c>
       <c r="B66" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -4820,48 +5708,60 @@
         <v>12.111</v>
       </c>
       <c r="E66" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F66" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G66" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="H66" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="I66" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="K66" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="L66" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="O66" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="P66">
         <v>71226401</v>
       </c>
       <c r="Q66" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="R66" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="S66" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="67" spans="1:19">
+        <v>363</v>
+      </c>
+      <c r="T66" t="s">
+        <v>374</v>
+      </c>
+      <c r="U66" t="s">
+        <v>392</v>
+      </c>
+      <c r="V66" t="b">
+        <v>0</v>
+      </c>
+      <c r="W66" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23">
       <c r="A67">
         <v>2015</v>
       </c>
       <c r="B67" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C67">
         <v>0.33333334</v>
@@ -4870,48 +5770,60 @@
         <v>8.3961782</v>
       </c>
       <c r="E67" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F67" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G67" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="H67" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="I67" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="K67" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="L67" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="O67" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="P67">
         <v>71226401</v>
       </c>
       <c r="Q67" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="R67" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="S67" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="68" spans="1:19">
+        <v>363</v>
+      </c>
+      <c r="T67" t="s">
+        <v>387</v>
+      </c>
+      <c r="U67" t="s">
+        <v>392</v>
+      </c>
+      <c r="V67" t="b">
+        <v>0</v>
+      </c>
+      <c r="W67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23">
       <c r="A68">
         <v>2013</v>
       </c>
       <c r="B68" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C68">
         <v>0.25</v>
@@ -4920,48 +5832,60 @@
         <v>5.4349999</v>
       </c>
       <c r="E68" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F68" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G68" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="H68" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="I68" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="K68" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="L68" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="O68" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="P68">
         <v>71226401</v>
       </c>
       <c r="Q68" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="R68" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="S68" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="69" spans="1:19">
+        <v>363</v>
+      </c>
+      <c r="T68" t="s">
+        <v>375</v>
+      </c>
+      <c r="U68" t="s">
+        <v>392</v>
+      </c>
+      <c r="V68" t="b">
+        <v>0</v>
+      </c>
+      <c r="W68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23">
       <c r="A69">
         <v>2011</v>
       </c>
       <c r="B69" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -4970,48 +5894,60 @@
         <v>12.959</v>
       </c>
       <c r="E69" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F69" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G69" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="H69" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="I69" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="K69" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="L69" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="O69" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="P69">
         <v>71226401</v>
       </c>
       <c r="Q69" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="R69" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="S69" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="70" spans="1:19">
+        <v>363</v>
+      </c>
+      <c r="T69" t="s">
+        <v>364</v>
+      </c>
+      <c r="U69" t="s">
+        <v>390</v>
+      </c>
+      <c r="V69" t="b">
+        <v>1</v>
+      </c>
+      <c r="W69" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23">
       <c r="A70">
         <v>2013</v>
       </c>
       <c r="B70" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -5020,48 +5956,60 @@
         <v>10.047</v>
       </c>
       <c r="E70" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F70" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G70" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="H70" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="I70" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="K70" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="L70" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="O70" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="P70">
         <v>71226401</v>
       </c>
       <c r="Q70" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="R70" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="S70" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="71" spans="1:19">
+        <v>363</v>
+      </c>
+      <c r="T70" t="s">
+        <v>365</v>
+      </c>
+      <c r="U70" t="s">
+        <v>391</v>
+      </c>
+      <c r="V70" t="b">
+        <v>1</v>
+      </c>
+      <c r="W70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23">
       <c r="A71">
         <v>2011</v>
       </c>
       <c r="B71" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -5070,48 +6018,60 @@
         <v>10.334614</v>
       </c>
       <c r="E71" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F71" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G71" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="H71" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="I71" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="K71" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="L71" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="O71" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="P71">
         <v>71226401</v>
       </c>
       <c r="Q71" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="R71" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="S71" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="72" spans="1:19">
+        <v>363</v>
+      </c>
+      <c r="T71" t="s">
+        <v>388</v>
+      </c>
+      <c r="U71" t="s">
+        <v>392</v>
+      </c>
+      <c r="V71" t="b">
+        <v>0</v>
+      </c>
+      <c r="W71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23">
       <c r="A72">
         <v>2012</v>
       </c>
       <c r="B72" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C72">
         <v>0.5</v>
@@ -5120,48 +6080,60 @@
         <v>0</v>
       </c>
       <c r="E72" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F72" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="G72" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="H72" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="I72" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="K72" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="L72" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="O72" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="P72">
         <v>71226401</v>
       </c>
       <c r="Q72" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="R72" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="S72" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="73" spans="1:19">
+        <v>363</v>
+      </c>
+      <c r="T72" t="s">
+        <v>389</v>
+      </c>
+      <c r="U72" t="s">
+        <v>393</v>
+      </c>
+      <c r="V72" t="b">
+        <v>0</v>
+      </c>
+      <c r="W72" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23">
       <c r="A73">
         <v>2012</v>
       </c>
       <c r="B73" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -5170,48 +6142,60 @@
         <v>12.977</v>
       </c>
       <c r="E73" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F73" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G73" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H73" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="I73" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="K73" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="L73" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="O73" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="P73">
         <v>71226401</v>
       </c>
       <c r="Q73" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="R73" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="S73" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="74" spans="1:19">
+        <v>363</v>
+      </c>
+      <c r="T73" t="s">
+        <v>365</v>
+      </c>
+      <c r="U73" t="s">
+        <v>391</v>
+      </c>
+      <c r="V73" t="b">
+        <v>1</v>
+      </c>
+      <c r="W73" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23">
       <c r="A74">
         <v>2015</v>
       </c>
       <c r="B74" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C74">
         <v>0.1</v>
@@ -5220,40 +6204,52 @@
         <v>1.0761218</v>
       </c>
       <c r="E74" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F74" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G74" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H74" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="I74" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="K74" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="L74" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="O74" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="P74">
         <v>71226401</v>
       </c>
       <c r="Q74" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="R74" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="S74" t="s">
-        <v>359</v>
+        <v>363</v>
+      </c>
+      <c r="T74" t="s">
+        <v>364</v>
+      </c>
+      <c r="U74" t="s">
+        <v>390</v>
+      </c>
+      <c r="V74" t="b">
+        <v>0</v>
+      </c>
+      <c r="W74" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/xls/VŠPJ-Vysoká škola polytechnická Jihlava_All.xlsx
+++ b/xls/VŠPJ-Vysoká škola polytechnická Jihlava_All.xlsx
@@ -79,10 +79,10 @@
     <t>Record_FOS_category</t>
   </si>
   <si>
-    <t>IsLocalJournal</t>
-  </si>
-  <si>
-    <t>IsPredatoryJournal</t>
+    <t>Místní časopis</t>
+  </si>
+  <si>
+    <t>Predátorský časopis</t>
   </si>
   <si>
     <t>Jimp</t>
